--- a/PEDRO_OSORIO.xlsx
+++ b/PEDRO_OSORIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C614C67-E9F1-4FE4-A0C5-3B0469E14545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8FA150-2A11-4856-BFDA-58A1123D575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1098,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1158,36 +1145,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,14 +1189,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,7 +1237,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{880481A9-743B-4A76-AA7F-EB5ED56AD6D3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{70FC94C9-FF1A-4DBF-89AA-4A19FB393336}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,10 +1267,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1F572D-3D51-4D1A-B919-5644F94CADA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B92ED41-8DE7-414C-BE72-AD6BE3A2445C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,7 +1308,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DF0399B-5F14-4D05-B7E0-725E1E44A9CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AD5ED6-828C-4F9C-9CC5-217034207DEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1371,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127C4E3B-03C6-4CD7-90EC-8C48606D9F32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F60249-0265-46E6-BDF2-04683E87F0D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1390,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2AF8B7F-A49A-454F-DB73-CE5CA23E52B2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD33380C-8414-B5A7-D886-A6AC1EA738D0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1481,7 +1439,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF87614-D6BA-0413-33BD-7FDF804D553D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E08A71F-4561-5385-11CC-7E4B790F9B83}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1500,7 +1458,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4EBB1B3-7EA3-FBFA-F4F5-0FAFFE32FCE0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B851C9-4AAE-EE3B-5721-1E46B84A7241}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1531,7 +1489,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0133336F-8F2A-35B2-4243-2271A1A0209A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A54A2B-907E-B42E-FC16-4B32C5109E66}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1562,7 +1520,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB226BC4-CDE1-10B7-B267-BA11B44FF8A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0AC985-7CEC-318C-B8E9-B7DC45110C81}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1605,7 +1563,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7291D1-4FDD-4434-A6B5-6CFF542181DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F3DB66-545C-4D16-BFE8-476ED8BC3917}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1601,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F02E0DD-F548-4645-A7B6-A8158E1DF2A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B133B0FD-3826-4367-9775-CE563734505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1686,7 +1644,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEDF9122-1C89-4BFD-A8C3-6BC9235176AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A49930-4994-4225-B8DB-EAF1C8324C87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +1957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6151C586-5E1E-41BF-B32D-72198CFABA2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AA480F-D556-4D5E-A246-A95422CF2C22}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2011,98 +1969,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5526,19 +5484,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5561,46 +5519,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5625,54 +5583,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>302</v>
       </c>
     </row>
@@ -5683,43 +5642,43 @@
       <c r="B2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45108</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>724</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>0</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>305</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>305</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5750,25 +5709,24 @@
       <c r="B1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="32">
         <v>19</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="35">
-        <v>19</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>1.2564475598465809E-3</v>
       </c>
     </row>

--- a/PEDRO_OSORIO.xlsx
+++ b/PEDRO_OSORIO.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B8FA150-2A11-4856-BFDA-58A1123D575A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EE673B-6381-4D5D-A31D-E2B3E4A1DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="316">
   <si>
     <t>COMARCA</t>
   </si>
@@ -959,6 +960,21 @@
   </si>
   <si>
     <t>PEDRO OSÓRIO</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>Validou posto que não existe na comarca</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -968,7 +984,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,6 +1037,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1035,7 +1064,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,6 +1105,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE8B2"/>
         <bgColor rgb="FFFCE8B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1148,9 +1183,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,12 +1267,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{70FC94C9-FF1A-4DBF-89AA-4A19FB393336}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{48632E57-E53C-4281-9C6D-54FA752572B2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1267,10 +1306,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B92ED41-8DE7-414C-BE72-AD6BE3A2445C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770087C0-DF3F-4000-89D9-D90AFE215D78}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1308,7 +1347,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AD5ED6-828C-4F9C-9CC5-217034207DEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7533A407-2CBE-4AE0-8E0A-90DFC13248F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1410,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F60249-0265-46E6-BDF2-04683E87F0D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE8F26E-E58C-4799-9422-0D3950B29891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1390,7 +1429,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD33380C-8414-B5A7-D886-A6AC1EA738D0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DAE19F-AE20-AA55-6EC9-2EC229996B69}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1439,7 +1478,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E08A71F-4561-5385-11CC-7E4B790F9B83}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB748DC-1210-158D-07D4-6B89E4665C56}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1458,7 +1497,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B851C9-4AAE-EE3B-5721-1E46B84A7241}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06462628-164A-9E72-EFCF-DAFA920325DB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1528,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A54A2B-907E-B42E-FC16-4B32C5109E66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3104C5-39F9-ABD4-94E1-C2965A1EA685}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1520,7 +1559,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B0AC985-7CEC-318C-B8E9-B7DC45110C81}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E900468D-BCA3-B90A-4793-F63C7CF523D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1563,7 +1602,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F3DB66-545C-4D16-BFE8-476ED8BC3917}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1F0488-7460-4555-A8E0-882ECE14206B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1640,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B133B0FD-3826-4367-9775-CE563734505F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910C51F2-22DE-419B-ABF7-3C8D38C36C79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1683,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A49930-4994-4225-B8DB-EAF1C8324C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C98EFF3-D744-428B-82C2-8791F8FEE745}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AA480F-D556-4D5E-A246-A95422CF2C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7EE2A6-8650-41F1-BFB0-ACEB7BE67285}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1969,98 +2008,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="36"/>
+    <col min="6" max="6" width="2" style="36" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5733,4 +5772,55 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/PEDRO_OSORIO.xlsx
+++ b/PEDRO_OSORIO.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EE673B-6381-4D5D-A31D-E2B3E4A1DB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1425CE77-3BAC-472C-85D1-A2830CBFE553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="313">
   <si>
     <t>COMARCA</t>
   </si>
@@ -951,15 +950,6 @@
   </si>
   <si>
     <t>Finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>PEDRO OSÓRIO</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1185,7 +1175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,21 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,7 +1251,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{48632E57-E53C-4281-9C6D-54FA752572B2}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{58C1B45E-199A-4705-A8C9-3BA247DC2669}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1306,10 +1281,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770087C0-DF3F-4000-89D9-D90AFE215D78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF1FCEA-8A4A-4131-8634-E2E0071AA041}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1322,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7533A407-2CBE-4AE0-8E0A-90DFC13248F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B4BD67-37C0-4296-B7E9-FEAFCD55A0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1385,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE8F26E-E58C-4799-9422-0D3950B29891}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDAAB90-4BEB-41C2-B68A-88E52788E9DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1404,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DAE19F-AE20-AA55-6EC9-2EC229996B69}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A3C4EF-A680-4F46-95A3-BE651A926F40}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1478,7 +1453,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB748DC-1210-158D-07D4-6B89E4665C56}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610B4614-9D31-B095-1501-03B98D907884}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1497,7 +1472,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06462628-164A-9E72-EFCF-DAFA920325DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9405E85-117F-AD8B-7A3D-5A3CE4A336A0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1528,7 +1503,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3104C5-39F9-ABD4-94E1-C2965A1EA685}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96F424C-3A6A-445E-A1D1-484329014258}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1559,7 +1534,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E900468D-BCA3-B90A-4793-F63C7CF523D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C7C063-C0FC-0209-C5A2-267E04F6256F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1602,7 +1577,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1F0488-7460-4555-A8E0-882ECE14206B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A735CD7D-C0D3-4F60-A5CA-94259A4C0843}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1615,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{910C51F2-22DE-419B-ABF7-3C8D38C36C79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF72565-BB61-4725-927D-89A12A46227E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1658,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C98EFF3-D744-428B-82C2-8791F8FEE745}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E247764-4B08-4A6C-BC35-1E910A2754BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7EE2A6-8650-41F1-BFB0-ACEB7BE67285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6A6229-3A49-4990-B89C-51FF15B0DFCF}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2008,98 +1983,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="31"/>
+    <col min="6" max="6" width="2" style="31" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="31" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5728,54 +5703,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="32">
-        <v>19</v>
-      </c>
-      <c r="C2" s="30">
-        <v>1.2564475598465809E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5788,36 +5715,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C1" s="33" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/PEDRO_OSORIO.xlsx
+++ b/PEDRO_OSORIO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1425CE77-3BAC-472C-85D1-A2830CBFE553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11BDCF4F-409F-46F2-8EC1-AAC085B4FC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1251,7 +1251,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{58C1B45E-199A-4705-A8C9-3BA247DC2669}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{082EF6FA-C10D-45F7-B089-53BBBC3F6040}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1281,10 +1281,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF1FCEA-8A4A-4131-8634-E2E0071AA041}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06C140D8-E390-40D5-92EE-2713A0E7A4AC}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B4BD67-37C0-4296-B7E9-FEAFCD55A0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA8E3C2-2BCE-44AF-ADF4-1D77E4AC25D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1385,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDAAB90-4BEB-41C2-B68A-88E52788E9DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75DA7456-DC68-4DFE-A54E-EE3D86A0FD36}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1404,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A3C4EF-A680-4F46-95A3-BE651A926F40}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941C4F21-BA7C-6D4B-7B1C-A580BC1B8DE9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610B4614-9D31-B095-1501-03B98D907884}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39AEED89-BF64-ADE7-A77D-053492307647}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1472,7 +1472,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9405E85-117F-AD8B-7A3D-5A3CE4A336A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{708AB1D3-4244-268E-5DE4-8E75A3501038}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1503,7 +1503,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96F424C-3A6A-445E-A1D1-484329014258}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C27CD14-E170-0DAC-D40B-9DB8BAF7F3D2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1534,7 +1534,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C7C063-C0FC-0209-C5A2-267E04F6256F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5AD57F-E8BB-D4DD-E373-63FEE4CA33E8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A735CD7D-C0D3-4F60-A5CA-94259A4C0843}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977CA714-D030-41B2-B198-8D09806D832F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1615,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF72565-BB61-4725-927D-89A12A46227E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799B01F2-2BE7-4480-9674-3AE4EA902D8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,50 +1640,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E247764-4B08-4A6C-BC35-1E910A2754BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1971,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6A6229-3A49-4990-B89C-51FF15B0DFCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C573C95-5503-4CD5-818D-E4D07CF47806}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
